--- a/data/pca/factorExposure/factorExposure_2010-03-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-03-24.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01495936478395079</v>
+        <v>-0.01699955484483056</v>
       </c>
       <c r="C2">
-        <v>0.01129895460365832</v>
+        <v>-0.0010009203784484</v>
       </c>
       <c r="D2">
-        <v>-0.01492741070924044</v>
+        <v>-0.008268753766511065</v>
       </c>
       <c r="E2">
-        <v>0.008563482255169451</v>
+        <v>-0.0001140051668877841</v>
       </c>
       <c r="F2">
-        <v>-0.01990874530489921</v>
+        <v>-0.01001339004169928</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1201724056379871</v>
+        <v>-0.09347211477200887</v>
       </c>
       <c r="C4">
-        <v>0.06785981816402469</v>
+        <v>-0.01575676161722261</v>
       </c>
       <c r="D4">
-        <v>-0.005759657986091914</v>
+        <v>-0.08474895887033218</v>
       </c>
       <c r="E4">
-        <v>-0.006017476846605416</v>
+        <v>0.03072013031310418</v>
       </c>
       <c r="F4">
-        <v>0.01163900875962508</v>
+        <v>0.030838414692807</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1199681529754865</v>
+        <v>-0.1547962646922237</v>
       </c>
       <c r="C6">
-        <v>-0.006506423128846852</v>
+        <v>-0.02455205504536663</v>
       </c>
       <c r="D6">
-        <v>-0.01529041496171972</v>
+        <v>0.02225555639095141</v>
       </c>
       <c r="E6">
-        <v>0.02837928960937174</v>
+        <v>0.009512536343970243</v>
       </c>
       <c r="F6">
-        <v>0.05657433914989055</v>
+        <v>0.04884763986989805</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07595270937738328</v>
+        <v>-0.05910677889997586</v>
       </c>
       <c r="C7">
-        <v>0.06581856111018021</v>
+        <v>0.000960209728873241</v>
       </c>
       <c r="D7">
-        <v>-0.02746651414272322</v>
+        <v>-0.0524880295691765</v>
       </c>
       <c r="E7">
-        <v>0.02449044900509053</v>
+        <v>0.01521150779900338</v>
       </c>
       <c r="F7">
-        <v>-0.03268666498586735</v>
+        <v>0.04873335928699246</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.0544990545027125</v>
+        <v>-0.05777790776386544</v>
       </c>
       <c r="C8">
-        <v>0.03726668548648185</v>
+        <v>0.0133832466639188</v>
       </c>
       <c r="D8">
-        <v>-0.01916544669301247</v>
+        <v>-0.03304043777449091</v>
       </c>
       <c r="E8">
-        <v>-0.007729862674816113</v>
+        <v>0.01642389721863768</v>
       </c>
       <c r="F8">
-        <v>0.02423758885016625</v>
+        <v>-0.03029790675823826</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08715809341205363</v>
+        <v>-0.07114792338296334</v>
       </c>
       <c r="C9">
-        <v>0.05704142920837781</v>
+        <v>-0.01171365922817087</v>
       </c>
       <c r="D9">
-        <v>-0.01315555948224144</v>
+        <v>-0.08433228457219273</v>
       </c>
       <c r="E9">
-        <v>-0.01329291619441124</v>
+        <v>0.0253885820582566</v>
       </c>
       <c r="F9">
-        <v>-0.009399956666804155</v>
+        <v>0.0522119976240173</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1014134501942129</v>
+        <v>-0.09541348973692161</v>
       </c>
       <c r="C10">
-        <v>-0.178337009688281</v>
+        <v>-0.01799836908914796</v>
       </c>
       <c r="D10">
-        <v>-0.00167928930998998</v>
+        <v>0.1709309266896867</v>
       </c>
       <c r="E10">
-        <v>0.007269401402110597</v>
+        <v>-0.03995468142682113</v>
       </c>
       <c r="F10">
-        <v>-0.04892639957008138</v>
+        <v>-0.05418108426427719</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08151212313545207</v>
+        <v>-0.0874974243835256</v>
       </c>
       <c r="C11">
-        <v>0.0516640875553344</v>
+        <v>-0.01139104764169685</v>
       </c>
       <c r="D11">
-        <v>-0.02215746813472284</v>
+        <v>-0.1144198344752897</v>
       </c>
       <c r="E11">
-        <v>-0.01833869948995306</v>
+        <v>0.04920891266087161</v>
       </c>
       <c r="F11">
-        <v>0.008932877286763665</v>
+        <v>0.01900562553171809</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.08396846241521941</v>
+        <v>-0.09196530878525047</v>
       </c>
       <c r="C12">
-        <v>0.07619224692526991</v>
+        <v>-0.008933704713641265</v>
       </c>
       <c r="D12">
-        <v>-0.03279083701165145</v>
+        <v>-0.123478850068118</v>
       </c>
       <c r="E12">
-        <v>-0.06092526229168051</v>
+        <v>0.04851004528971645</v>
       </c>
       <c r="F12">
-        <v>-0.02016104953935893</v>
+        <v>0.01853863062370965</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.03294534743495536</v>
+        <v>-0.04288897064479974</v>
       </c>
       <c r="C13">
-        <v>0.02969297403171417</v>
+        <v>-0.003968611413319</v>
       </c>
       <c r="D13">
-        <v>-0.004743131041199521</v>
+        <v>-0.04676297752198177</v>
       </c>
       <c r="E13">
-        <v>0.02136627351950895</v>
+        <v>-0.01201635097413855</v>
       </c>
       <c r="F13">
-        <v>-0.01105301021500041</v>
+        <v>0.01318536725421847</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.03366786869898759</v>
+        <v>-0.02234918693955368</v>
       </c>
       <c r="C14">
-        <v>0.01095777433603522</v>
+        <v>-0.01426446696342834</v>
       </c>
       <c r="D14">
-        <v>0.004995524523391529</v>
+        <v>-0.03125008112491452</v>
       </c>
       <c r="E14">
-        <v>-0.02325022625564641</v>
+        <v>0.01888949344900085</v>
       </c>
       <c r="F14">
-        <v>0.0133603883913627</v>
+        <v>0.01700532491961041</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.0177383949954881</v>
+        <v>-0.03141843083646356</v>
       </c>
       <c r="C15">
-        <v>0.00857449974095202</v>
+        <v>-0.005285836056601153</v>
       </c>
       <c r="D15">
-        <v>-0.01141376249793598</v>
+        <v>-0.04514182767474417</v>
       </c>
       <c r="E15">
-        <v>0.0458217168830538</v>
+        <v>0.009044559902375144</v>
       </c>
       <c r="F15">
-        <v>-0.01916077808999326</v>
+        <v>0.02936786715471482</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08923790476334181</v>
+        <v>-0.0732206001378263</v>
       </c>
       <c r="C16">
-        <v>0.06166118382110961</v>
+        <v>-0.002767848321661909</v>
       </c>
       <c r="D16">
-        <v>-0.0233742839308341</v>
+        <v>-0.1182677217344625</v>
       </c>
       <c r="E16">
-        <v>-0.04203088250858623</v>
+        <v>0.0637113171238791</v>
       </c>
       <c r="F16">
-        <v>0.001534669673643084</v>
+        <v>0.02781694013026596</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02384383850642651</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003878063485861085</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.01895415554325023</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.006223990719148092</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.0179179966261016</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.05089110573827391</v>
+        <v>-0.06050545510153541</v>
       </c>
       <c r="C20">
-        <v>0.03603982289927439</v>
+        <v>-0.0004423985243185517</v>
       </c>
       <c r="D20">
-        <v>0.01980126522478408</v>
+        <v>-0.07482620114267266</v>
       </c>
       <c r="E20">
-        <v>0.02938652131668012</v>
+        <v>0.05599869844096007</v>
       </c>
       <c r="F20">
-        <v>-0.01267100464807027</v>
+        <v>0.02677517915618389</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.0332909654319051</v>
+        <v>-0.03885430036826884</v>
       </c>
       <c r="C21">
-        <v>0.001020375572339322</v>
+        <v>-0.006833416317968763</v>
       </c>
       <c r="D21">
-        <v>0.02368087041164531</v>
+        <v>-0.03625668614867047</v>
       </c>
       <c r="E21">
-        <v>-0.01522727612111536</v>
+        <v>-0.008173974526821545</v>
       </c>
       <c r="F21">
-        <v>0.02607059036161515</v>
+        <v>-0.0215479487702421</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.03139011375420341</v>
+        <v>-0.04341844656490459</v>
       </c>
       <c r="C22">
-        <v>-0.02769366345497518</v>
+        <v>-0.001044031563650199</v>
       </c>
       <c r="D22">
-        <v>-0.0545816494774938</v>
+        <v>0.001822640491020611</v>
       </c>
       <c r="E22">
-        <v>0.6034639458548581</v>
+        <v>0.02775136189926376</v>
       </c>
       <c r="F22">
-        <v>-0.1607501556358942</v>
+        <v>-0.004101946091535833</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.03161983014330184</v>
+        <v>-0.04347251537782153</v>
       </c>
       <c r="C23">
-        <v>-0.02723763353294993</v>
+        <v>-0.001066407130249556</v>
       </c>
       <c r="D23">
-        <v>-0.05576480255535834</v>
+        <v>0.001696795166620398</v>
       </c>
       <c r="E23">
-        <v>0.6067897465941183</v>
+        <v>0.02810610756941296</v>
       </c>
       <c r="F23">
-        <v>-0.1594914229386103</v>
+        <v>-0.003642580568901619</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08954429941969655</v>
+        <v>-0.07963114751540962</v>
       </c>
       <c r="C24">
-        <v>0.05989187075085536</v>
+        <v>-0.003033734945397606</v>
       </c>
       <c r="D24">
-        <v>-0.0118480782580051</v>
+        <v>-0.1187021827495639</v>
       </c>
       <c r="E24">
-        <v>-0.03191591874945036</v>
+        <v>0.05179737492163133</v>
       </c>
       <c r="F24">
-        <v>-0.008126932300875763</v>
+        <v>0.02043916606032512</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09447181378850632</v>
+        <v>-0.08473233778537756</v>
       </c>
       <c r="C25">
-        <v>0.05100977083938611</v>
+        <v>-0.0051308579729168</v>
       </c>
       <c r="D25">
-        <v>-0.0292266537100969</v>
+        <v>-0.1072274980591658</v>
       </c>
       <c r="E25">
-        <v>-0.06463645270145277</v>
+        <v>0.03431149515132614</v>
       </c>
       <c r="F25">
-        <v>-0.01209223732725719</v>
+        <v>0.02806566095824637</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03757613508571641</v>
+        <v>-0.05453994504550538</v>
       </c>
       <c r="C26">
-        <v>-0.02700148206131399</v>
+        <v>-0.01474252553663066</v>
       </c>
       <c r="D26">
-        <v>0.01313565954788631</v>
+        <v>-0.03789151983810905</v>
       </c>
       <c r="E26">
-        <v>0.009626162994187518</v>
+        <v>0.02758704720300757</v>
       </c>
       <c r="F26">
-        <v>0.03368079328568673</v>
+        <v>-0.01233686562022282</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1063791425249091</v>
+        <v>-0.1436252095357277</v>
       </c>
       <c r="C28">
-        <v>-0.3156747752857829</v>
+        <v>-0.01685681243334807</v>
       </c>
       <c r="D28">
-        <v>-0.03749612088172813</v>
+        <v>0.2657671702243246</v>
       </c>
       <c r="E28">
-        <v>-0.04286825046455477</v>
+        <v>-0.06976374543642405</v>
       </c>
       <c r="F28">
-        <v>0.009227283022583705</v>
+        <v>0.02852439722221979</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02991379426886749</v>
+        <v>-0.02702562116379622</v>
       </c>
       <c r="C29">
-        <v>0.007717598348200108</v>
+        <v>-0.008587530461752367</v>
       </c>
       <c r="D29">
-        <v>-0.001158856100022448</v>
+        <v>-0.0303425068845425</v>
       </c>
       <c r="E29">
-        <v>-0.0370004459204143</v>
+        <v>0.01216529025089198</v>
       </c>
       <c r="F29">
-        <v>-0.02660870698181784</v>
+        <v>-0.01459137073335916</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.103514165800782</v>
+        <v>-0.06248156801292666</v>
       </c>
       <c r="C30">
-        <v>0.1188455233175988</v>
+        <v>-0.004319467206139576</v>
       </c>
       <c r="D30">
-        <v>-0.03973805092456559</v>
+        <v>-0.08694593675003776</v>
       </c>
       <c r="E30">
-        <v>-0.04678156666295814</v>
+        <v>0.02476561438280669</v>
       </c>
       <c r="F30">
-        <v>0.04269040673851664</v>
+        <v>0.1034347832172489</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02926962231244126</v>
+        <v>-0.04830123898916956</v>
       </c>
       <c r="C31">
-        <v>0.02367288008648159</v>
+        <v>-0.01482504756823686</v>
       </c>
       <c r="D31">
-        <v>0.003393148329407581</v>
+        <v>-0.02775628803195513</v>
       </c>
       <c r="E31">
-        <v>0.00283282096818358</v>
+        <v>0.02718918949326641</v>
       </c>
       <c r="F31">
-        <v>-0.0002704279577999197</v>
+        <v>-0.004852149246835641</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05994045039322306</v>
+        <v>-0.04767103142643538</v>
       </c>
       <c r="C32">
-        <v>0.01987257038724036</v>
+        <v>0.0004611463625798915</v>
       </c>
       <c r="D32">
-        <v>0.01220184793798199</v>
+        <v>-0.03109992066308609</v>
       </c>
       <c r="E32">
-        <v>-0.06953359895929168</v>
+        <v>0.03090678871662839</v>
       </c>
       <c r="F32">
-        <v>0.07277627523095483</v>
+        <v>0.001579935089734239</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09892589754005374</v>
+        <v>-0.08960316583257578</v>
       </c>
       <c r="C33">
-        <v>0.06691716351313808</v>
+        <v>-0.008490491567958452</v>
       </c>
       <c r="D33">
-        <v>-0.07526449912261796</v>
+        <v>-0.09645640580725386</v>
       </c>
       <c r="E33">
-        <v>-0.0205855584438599</v>
+        <v>0.04789975343647985</v>
       </c>
       <c r="F33">
-        <v>-0.009602264760970758</v>
+        <v>0.03934410110006722</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.07668997768126973</v>
+        <v>-0.06736975494266406</v>
       </c>
       <c r="C34">
-        <v>0.05503874759153877</v>
+        <v>-0.01187941465122459</v>
       </c>
       <c r="D34">
-        <v>-0.01894133083680612</v>
+        <v>-0.09831769668931464</v>
       </c>
       <c r="E34">
-        <v>-0.03612734928057748</v>
+        <v>0.03565885262376513</v>
       </c>
       <c r="F34">
-        <v>-0.002217389554886991</v>
+        <v>0.03792232576513985</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.010064125435426</v>
+        <v>-0.0245731633895278</v>
       </c>
       <c r="C35">
-        <v>0.009400343933187741</v>
+        <v>-0.002368564931593268</v>
       </c>
       <c r="D35">
-        <v>-0.001179815279081589</v>
+        <v>-0.01135510985568037</v>
       </c>
       <c r="E35">
-        <v>-0.00422157574707235</v>
+        <v>0.01086625546199283</v>
       </c>
       <c r="F35">
-        <v>-0.01191126711062912</v>
+        <v>0.008789210866249411</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02908247631176718</v>
+        <v>-0.02441956132580601</v>
       </c>
       <c r="C36">
-        <v>0.007710380761562889</v>
+        <v>-0.007319493518511365</v>
       </c>
       <c r="D36">
-        <v>-0.006842100953554259</v>
+        <v>-0.03684601751000782</v>
       </c>
       <c r="E36">
-        <v>0.005768271339108398</v>
+        <v>0.01721250331619016</v>
       </c>
       <c r="F36">
-        <v>0.01751010917994468</v>
+        <v>0.01418507298764158</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.007387985149497128</v>
+        <v>-0.001522291746618554</v>
       </c>
       <c r="C38">
-        <v>0.006150021204797569</v>
+        <v>-0.0002438555329328112</v>
       </c>
       <c r="D38">
-        <v>-0.005731350562024127</v>
+        <v>-0.000863535346695789</v>
       </c>
       <c r="E38">
-        <v>0.02123054715483086</v>
+        <v>0.001107156823362881</v>
       </c>
       <c r="F38">
-        <v>-0.0292999033529302</v>
+        <v>-0.001195048486541791</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.129937423116635</v>
+        <v>-0.1077185424025222</v>
       </c>
       <c r="C39">
-        <v>0.1097239472890346</v>
+        <v>-0.01654170439082217</v>
       </c>
       <c r="D39">
-        <v>-0.05154243398107213</v>
+        <v>-0.1552669364943774</v>
       </c>
       <c r="E39">
-        <v>-0.1401524061484074</v>
+        <v>0.06222297895954295</v>
       </c>
       <c r="F39">
-        <v>-0.008944728684970465</v>
+        <v>0.02367123398117479</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.006732232393537647</v>
+        <v>-0.03718196357024477</v>
       </c>
       <c r="C40">
-        <v>0.02283359148267928</v>
+        <v>-0.007242740015764</v>
       </c>
       <c r="D40">
-        <v>0.01286152998487134</v>
+        <v>-0.0313020768736231</v>
       </c>
       <c r="E40">
-        <v>0.06629496244160171</v>
+        <v>0.003203894756333564</v>
       </c>
       <c r="F40">
-        <v>-0.03435784792432049</v>
+        <v>-0.01300164871055018</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02332149098385093</v>
+        <v>-0.02641399470536335</v>
       </c>
       <c r="C41">
-        <v>-0.003551010081570782</v>
+        <v>-0.006560686310728181</v>
       </c>
       <c r="D41">
-        <v>0.00744723304014171</v>
+        <v>-0.01145050654645133</v>
       </c>
       <c r="E41">
-        <v>-0.008190866278884846</v>
+        <v>0.01250350433816505</v>
       </c>
       <c r="F41">
-        <v>-0.01016690147289614</v>
+        <v>-0.008233833582515428</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.03514295548993322</v>
+        <v>-0.04040109878353732</v>
       </c>
       <c r="C43">
-        <v>0.0003402470143521006</v>
+        <v>-0.00666441211038375</v>
       </c>
       <c r="D43">
-        <v>-0.01446501021642034</v>
+        <v>-0.02107839615831446</v>
       </c>
       <c r="E43">
-        <v>-0.004419742346182838</v>
+        <v>0.0246760282229533</v>
       </c>
       <c r="F43">
-        <v>0.00415490715265143</v>
+        <v>-0.01306287246082494</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1304496149307453</v>
+        <v>-0.07586082931996989</v>
       </c>
       <c r="C44">
-        <v>0.1444917917736937</v>
+        <v>-0.02148826973178794</v>
       </c>
       <c r="D44">
-        <v>-0.05006175285046592</v>
+        <v>-0.0949186932427039</v>
       </c>
       <c r="E44">
-        <v>0.1007476678341988</v>
+        <v>0.07504535292892195</v>
       </c>
       <c r="F44">
-        <v>-0.1151924063451467</v>
+        <v>0.1837286818930684</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01827934444489395</v>
+        <v>-0.02249091109859725</v>
       </c>
       <c r="C46">
-        <v>-0.01783288872491733</v>
+        <v>-0.003557733119429759</v>
       </c>
       <c r="D46">
-        <v>-0.01823236501327432</v>
+        <v>-0.01213918199705501</v>
       </c>
       <c r="E46">
-        <v>0.02157150848469622</v>
+        <v>0.02371613646703362</v>
       </c>
       <c r="F46">
-        <v>-0.02709418388729609</v>
+        <v>-0.0006404799982581492</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03760984163495612</v>
+        <v>-0.05164794857882716</v>
       </c>
       <c r="C47">
-        <v>0.009544732064631571</v>
+        <v>-0.003175981157528029</v>
       </c>
       <c r="D47">
-        <v>0.008829807887685052</v>
+        <v>-0.0140946025679784</v>
       </c>
       <c r="E47">
-        <v>-0.005451552295046442</v>
+        <v>0.02225862626601657</v>
       </c>
       <c r="F47">
-        <v>0.0001205557881860106</v>
+        <v>-0.04450493612632857</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.0353196381737793</v>
+        <v>-0.04748012722317965</v>
       </c>
       <c r="C48">
-        <v>-0.0006673148557526841</v>
+        <v>-0.002654726563947866</v>
       </c>
       <c r="D48">
-        <v>-0.008824271273197517</v>
+        <v>-0.04925295603529588</v>
       </c>
       <c r="E48">
-        <v>-0.01017306095888543</v>
+        <v>-0.004494455188727611</v>
       </c>
       <c r="F48">
-        <v>0.003197830378450161</v>
+        <v>0.01025641539623513</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2271886856410901</v>
+        <v>-0.20275020561564</v>
       </c>
       <c r="C49">
-        <v>0.004424235758278579</v>
+        <v>-0.01758817090035638</v>
       </c>
       <c r="D49">
-        <v>0.04570007316082268</v>
+        <v>0.009887551174272464</v>
       </c>
       <c r="E49">
-        <v>-0.01310598540013326</v>
+        <v>0.03372387860543345</v>
       </c>
       <c r="F49">
-        <v>-0.05744955890264573</v>
+        <v>0.02919734104476808</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03820558827258675</v>
+        <v>-0.04816026687623481</v>
       </c>
       <c r="C50">
-        <v>0.01858224984404787</v>
+        <v>-0.01098067861180143</v>
       </c>
       <c r="D50">
-        <v>0.01046574135389845</v>
+        <v>-0.02660544456259547</v>
       </c>
       <c r="E50">
-        <v>-0.00942849473522768</v>
+        <v>0.02976590602672039</v>
       </c>
       <c r="F50">
-        <v>-0.003733955685639987</v>
+        <v>0.008602653936547581</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.01125283462287169</v>
+        <v>-0.002179228521576743</v>
       </c>
       <c r="C51">
-        <v>-0.01506011468752997</v>
+        <v>-0.0005529312692266775</v>
       </c>
       <c r="D51">
-        <v>-0.01517326772241453</v>
+        <v>0.002343688432309581</v>
       </c>
       <c r="E51">
-        <v>0.006690018671348981</v>
+        <v>-0.0001201988029844001</v>
       </c>
       <c r="F51">
-        <v>-0.01357608400439937</v>
+        <v>0.004670136030049299</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1064300464409073</v>
+        <v>-0.1447854102516281</v>
       </c>
       <c r="C52">
-        <v>0.08143028344160555</v>
+        <v>-0.01396207923263587</v>
       </c>
       <c r="D52">
-        <v>-0.01276853287088515</v>
+        <v>-0.05085934521787593</v>
       </c>
       <c r="E52">
-        <v>-0.009477480728670893</v>
+        <v>0.02430264981649396</v>
       </c>
       <c r="F52">
-        <v>-0.008231409846902167</v>
+        <v>0.03428037327143294</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1602853829732828</v>
+        <v>-0.173913228760064</v>
       </c>
       <c r="C53">
-        <v>0.04055340818518686</v>
+        <v>-0.0168767855725738</v>
       </c>
       <c r="D53">
-        <v>-0.0102829169507049</v>
+        <v>-0.01123294069811582</v>
       </c>
       <c r="E53">
-        <v>0.0219731774859754</v>
+        <v>0.03576994297327099</v>
       </c>
       <c r="F53">
-        <v>-0.02818184139700362</v>
+        <v>0.06700121993109397</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.05017457178592238</v>
+        <v>-0.02184720944745914</v>
       </c>
       <c r="C54">
-        <v>0.0232932277254577</v>
+        <v>-0.01235843251485414</v>
       </c>
       <c r="D54">
-        <v>-0.0006932189335782622</v>
+        <v>-0.03271890079653186</v>
       </c>
       <c r="E54">
-        <v>0.02355369176552792</v>
+        <v>0.01491245923685027</v>
       </c>
       <c r="F54">
-        <v>0.005258520541089511</v>
+        <v>-0.005537510677517844</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08376807648381403</v>
+        <v>-0.114294722789467</v>
       </c>
       <c r="C55">
-        <v>0.02879087665545672</v>
+        <v>-0.01550317242996398</v>
       </c>
       <c r="D55">
-        <v>-0.05399132290029116</v>
+        <v>-0.01091296449720055</v>
       </c>
       <c r="E55">
-        <v>-0.02410598320323254</v>
+        <v>0.03079991177433878</v>
       </c>
       <c r="F55">
-        <v>-0.009622078454630126</v>
+        <v>0.04516218451417256</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1563906586243565</v>
+        <v>-0.1775433752194133</v>
       </c>
       <c r="C56">
-        <v>0.05691615787887109</v>
+        <v>-0.0143400605429019</v>
       </c>
       <c r="D56">
-        <v>-0.01740612475557629</v>
+        <v>-0.007264881373695898</v>
       </c>
       <c r="E56">
-        <v>-0.009419806085286954</v>
+        <v>0.04001907653064742</v>
       </c>
       <c r="F56">
-        <v>-0.04990527196494959</v>
+        <v>0.04305377556279744</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04972206249193455</v>
+        <v>-0.04636387607986384</v>
       </c>
       <c r="C58">
-        <v>0.002613889283143447</v>
+        <v>-0.00127562590901227</v>
       </c>
       <c r="D58">
-        <v>0.006766716694405055</v>
+        <v>-0.06651795740781828</v>
       </c>
       <c r="E58">
-        <v>0.05235656150331729</v>
+        <v>0.02408809288742394</v>
       </c>
       <c r="F58">
-        <v>-0.01696754514447945</v>
+        <v>-0.04350710141502281</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1741662615321611</v>
+        <v>-0.1724539145821528</v>
       </c>
       <c r="C59">
-        <v>-0.2443790844378147</v>
+        <v>-0.01755592718270302</v>
       </c>
       <c r="D59">
-        <v>-0.05371599582405576</v>
+        <v>0.2230050201627226</v>
       </c>
       <c r="E59">
-        <v>-0.05054306935901711</v>
+        <v>-0.04963626719384414</v>
       </c>
       <c r="F59">
-        <v>-0.01865873076207154</v>
+        <v>-0.03289840801091753</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2757144136896156</v>
+        <v>-0.235638124906381</v>
       </c>
       <c r="C60">
-        <v>0.1647283231613351</v>
+        <v>0.004321690621589226</v>
       </c>
       <c r="D60">
-        <v>0.03676768679125608</v>
+        <v>-0.04862959097911277</v>
       </c>
       <c r="E60">
-        <v>-0.05880369489858903</v>
+        <v>0.009456051098742691</v>
       </c>
       <c r="F60">
-        <v>-0.1801163346157027</v>
+        <v>-0.03217634625539751</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1154720465727504</v>
+        <v>-0.08310779180988367</v>
       </c>
       <c r="C61">
-        <v>0.07540142269354276</v>
+        <v>-0.01262864552410716</v>
       </c>
       <c r="D61">
-        <v>-0.03998398055354094</v>
+        <v>-0.114699823369327</v>
       </c>
       <c r="E61">
-        <v>-0.08619018287362205</v>
+        <v>0.04220189403263944</v>
       </c>
       <c r="F61">
-        <v>-0.02848141984918933</v>
+        <v>0.01282803088998686</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1575667708474582</v>
+        <v>-0.1700061950654455</v>
       </c>
       <c r="C62">
-        <v>0.04353421496146177</v>
+        <v>-0.01786844430660569</v>
       </c>
       <c r="D62">
-        <v>-0.02801256406037314</v>
+        <v>-0.01140911064971931</v>
       </c>
       <c r="E62">
-        <v>0.006094942926175036</v>
+        <v>0.03660811746594604</v>
       </c>
       <c r="F62">
-        <v>-0.04365738539720347</v>
+        <v>0.0241258917392833</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.03683756809728422</v>
+        <v>-0.04200952956081611</v>
       </c>
       <c r="C63">
-        <v>-0.009476595724885024</v>
+        <v>-0.002732328909406706</v>
       </c>
       <c r="D63">
-        <v>-0.009227626087719473</v>
+        <v>-0.05213910652899109</v>
       </c>
       <c r="E63">
-        <v>-0.0031473641110468</v>
+        <v>0.02226503880166169</v>
       </c>
       <c r="F63">
-        <v>0.04485114381822694</v>
+        <v>0.005704309154704085</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09537054705479353</v>
+        <v>-0.1117818655371866</v>
       </c>
       <c r="C64">
-        <v>0.0218670895727208</v>
+        <v>-0.01120005853140789</v>
       </c>
       <c r="D64">
-        <v>-0.002494484178387099</v>
+        <v>-0.04343097778775291</v>
       </c>
       <c r="E64">
-        <v>-0.01105799066082978</v>
+        <v>0.02066422746016059</v>
       </c>
       <c r="F64">
-        <v>-0.05919189550181865</v>
+        <v>0.02529540388783304</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1137509431538462</v>
+        <v>-0.1459817791359907</v>
       </c>
       <c r="C65">
-        <v>-0.008246128828855575</v>
+        <v>-0.03128302048087279</v>
       </c>
       <c r="D65">
-        <v>-0.01381452442505092</v>
+        <v>0.04303847013446391</v>
       </c>
       <c r="E65">
-        <v>-0.008705470637741131</v>
+        <v>-0.0002427345398800293</v>
       </c>
       <c r="F65">
-        <v>0.06348519843026584</v>
+        <v>0.04832573286417798</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1487087069075268</v>
+        <v>-0.128793670920361</v>
       </c>
       <c r="C66">
-        <v>0.1356447007638071</v>
+        <v>-0.01431782590537427</v>
       </c>
       <c r="D66">
-        <v>-0.04632415413338537</v>
+        <v>-0.1431389929479608</v>
       </c>
       <c r="E66">
-        <v>-0.1169661960805405</v>
+        <v>0.06909259317924095</v>
       </c>
       <c r="F66">
-        <v>-0.02198644998606301</v>
+        <v>0.0292331601899585</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06610347875473292</v>
+        <v>-0.06209674940217522</v>
       </c>
       <c r="C67">
-        <v>0.04002073419850335</v>
+        <v>-0.003010302515430571</v>
       </c>
       <c r="D67">
-        <v>-0.08577217638275103</v>
+        <v>-0.05345965732766729</v>
       </c>
       <c r="E67">
-        <v>0.02091055522439538</v>
+        <v>0.01742768767838495</v>
       </c>
       <c r="F67">
-        <v>-0.01654022386381638</v>
+        <v>-0.0414228450569038</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.09576124318384829</v>
+        <v>-0.1171793016658007</v>
       </c>
       <c r="C68">
-        <v>-0.271018663041878</v>
+        <v>-0.02743058700045073</v>
       </c>
       <c r="D68">
-        <v>-0.02431480906672502</v>
+        <v>0.2614870312890964</v>
       </c>
       <c r="E68">
-        <v>-0.04815677363954731</v>
+        <v>-0.08813527794859817</v>
       </c>
       <c r="F68">
-        <v>0.0327342824002978</v>
+        <v>0.03154918104651241</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03238748799075914</v>
+        <v>-0.03915379391167967</v>
       </c>
       <c r="C69">
-        <v>-0.004404069116624986</v>
+        <v>-0.0009030699444660394</v>
       </c>
       <c r="D69">
-        <v>-0.03107720316210313</v>
+        <v>-0.009843576916558575</v>
       </c>
       <c r="E69">
-        <v>-0.0002122447263828892</v>
+        <v>0.02414113853549248</v>
       </c>
       <c r="F69">
-        <v>-0.01579061474264797</v>
+        <v>-0.01025900964309523</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.02890323942411343</v>
+        <v>-0.06236925243972181</v>
       </c>
       <c r="C70">
-        <v>-0.006968983834442376</v>
+        <v>0.02873814498151478</v>
       </c>
       <c r="D70">
-        <v>-0.04687695377586128</v>
+        <v>-0.02971000495615892</v>
       </c>
       <c r="E70">
-        <v>-0.04147301899876433</v>
+        <v>-0.05034604217743468</v>
       </c>
       <c r="F70">
-        <v>-0.03233453315200795</v>
+        <v>-0.2721291311648892</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1096530490168679</v>
+        <v>-0.1363887970377248</v>
       </c>
       <c r="C71">
-        <v>-0.2877739490242562</v>
+        <v>-0.0317245484611159</v>
       </c>
       <c r="D71">
-        <v>-0.03985293540632156</v>
+        <v>0.2763646476411505</v>
       </c>
       <c r="E71">
-        <v>-0.04188202890501749</v>
+        <v>-0.09653222273877954</v>
       </c>
       <c r="F71">
-        <v>-0.0128344284006748</v>
+        <v>0.03735972617311873</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1424837073796161</v>
+        <v>-0.1410533381419633</v>
       </c>
       <c r="C72">
-        <v>-0.01318523315633953</v>
+        <v>-0.02493805950526811</v>
       </c>
       <c r="D72">
-        <v>-0.002218038326528099</v>
+        <v>-0.004329691969937651</v>
       </c>
       <c r="E72">
-        <v>0.01069494203956678</v>
+        <v>0.044263701468006</v>
       </c>
       <c r="F72">
-        <v>0.01175792458254297</v>
+        <v>0.02572327870442416</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2268642338777453</v>
+        <v>-0.2029271239257617</v>
       </c>
       <c r="C73">
-        <v>0.04964883207784956</v>
+        <v>-0.0115354653367916</v>
       </c>
       <c r="D73">
-        <v>-0.05025778944918825</v>
+        <v>-0.01710131236088354</v>
       </c>
       <c r="E73">
-        <v>-0.05825827276081517</v>
+        <v>0.06340566540915858</v>
       </c>
       <c r="F73">
-        <v>-0.1346229310826551</v>
+        <v>0.03208717501790142</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1170713224000736</v>
+        <v>-0.09434297600722885</v>
       </c>
       <c r="C74">
-        <v>0.04949834131925368</v>
+        <v>-0.01223219390591531</v>
       </c>
       <c r="D74">
-        <v>-0.02180639909121107</v>
+        <v>-0.02077315261058826</v>
       </c>
       <c r="E74">
-        <v>0.009601299619946912</v>
+        <v>0.04858797057873206</v>
       </c>
       <c r="F74">
-        <v>-0.01631053311944986</v>
+        <v>0.04929601765511543</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1205078159378546</v>
+        <v>-0.1294721642507283</v>
       </c>
       <c r="C75">
-        <v>0.05302961728169444</v>
+        <v>-0.02651211908737697</v>
       </c>
       <c r="D75">
-        <v>-0.001176543999482792</v>
+        <v>-0.03433263639328066</v>
       </c>
       <c r="E75">
-        <v>0.01037628757052463</v>
+        <v>0.06056895803473409</v>
       </c>
       <c r="F75">
-        <v>0.007973775739681842</v>
+        <v>0.01368527526355876</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.01883836520202094</v>
+        <v>-0.003421131859136768</v>
       </c>
       <c r="C76">
-        <v>-0.01517666291508205</v>
+        <v>-0.0008209977456336264</v>
       </c>
       <c r="D76">
-        <v>-0.01136220600077789</v>
+        <v>0.002547638178231288</v>
       </c>
       <c r="E76">
-        <v>-0.008354083658215853</v>
+        <v>0.0004299591816367121</v>
       </c>
       <c r="F76">
-        <v>-0.02068717409452668</v>
+        <v>0.003891775418697141</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07275695080809072</v>
+        <v>-0.07861465250563564</v>
       </c>
       <c r="C77">
-        <v>0.1169304141014704</v>
+        <v>-0.008799634882982679</v>
       </c>
       <c r="D77">
-        <v>0.009935990308355142</v>
+        <v>-0.1170373926251706</v>
       </c>
       <c r="E77">
-        <v>-0.004590125704744871</v>
+        <v>0.03896092965065742</v>
       </c>
       <c r="F77">
-        <v>-0.06207906109794183</v>
+        <v>0.03046885693936707</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1218590918934219</v>
+        <v>-0.104146960080756</v>
       </c>
       <c r="C78">
-        <v>0.031696150683229</v>
+        <v>-0.0400667033414827</v>
       </c>
       <c r="D78">
-        <v>-0.08316498964533278</v>
+        <v>-0.1171620622564234</v>
       </c>
       <c r="E78">
-        <v>0.3282667653640539</v>
+        <v>0.08310048921396429</v>
       </c>
       <c r="F78">
-        <v>0.2792064744558447</v>
+        <v>0.06440394850276537</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.134632839932716</v>
+        <v>-0.1640364860357666</v>
       </c>
       <c r="C79">
-        <v>0.04948887231745361</v>
+        <v>-0.02071784465916373</v>
       </c>
       <c r="D79">
-        <v>0.0178764193578486</v>
+        <v>-0.01915955214219613</v>
       </c>
       <c r="E79">
-        <v>0.0003909852254484156</v>
+        <v>0.04962994155243541</v>
       </c>
       <c r="F79">
-        <v>-0.02457314041024708</v>
+        <v>0.005098893975939489</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07775084741129827</v>
+        <v>-0.08088099962323728</v>
       </c>
       <c r="C80">
-        <v>0.08238546227696478</v>
+        <v>0.0009341431742291439</v>
       </c>
       <c r="D80">
-        <v>-0.07588956238839734</v>
+        <v>-0.0572387336580467</v>
       </c>
       <c r="E80">
-        <v>-0.02875216448159679</v>
+        <v>0.03592322764874874</v>
       </c>
       <c r="F80">
-        <v>0.009626618376422291</v>
+        <v>-0.01707174254622636</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1388958900332305</v>
+        <v>-0.1234260628739346</v>
       </c>
       <c r="C81">
-        <v>0.06187123142080971</v>
+        <v>-0.03036417982725653</v>
       </c>
       <c r="D81">
-        <v>-0.004980575484707477</v>
+        <v>-0.01862684598907772</v>
       </c>
       <c r="E81">
-        <v>0.01035105859206105</v>
+        <v>0.059765310621233</v>
       </c>
       <c r="F81">
-        <v>-0.01663782510130248</v>
+        <v>0.006645554139564025</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1599698253404579</v>
+        <v>-0.1641213305792479</v>
       </c>
       <c r="C82">
-        <v>0.05319481376438919</v>
+        <v>-0.02249918636826066</v>
       </c>
       <c r="D82">
-        <v>-0.02676716658928656</v>
+        <v>-0.01280894402599456</v>
       </c>
       <c r="E82">
-        <v>-0.02415927839917796</v>
+        <v>0.03485016484523218</v>
       </c>
       <c r="F82">
-        <v>-0.04497692367198195</v>
+        <v>0.06867392892918792</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.07699581928471676</v>
+        <v>-0.06242642706899709</v>
       </c>
       <c r="C83">
-        <v>0.06799694783237833</v>
+        <v>-0.003090138251252216</v>
       </c>
       <c r="D83">
-        <v>0.02204919253662511</v>
+        <v>-0.05084207962818106</v>
       </c>
       <c r="E83">
-        <v>0.04051229392915765</v>
+        <v>0.005718263009223511</v>
       </c>
       <c r="F83">
-        <v>0.04629795827484337</v>
+        <v>-0.04353029521166767</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06676107020664772</v>
+        <v>-0.059135131138116</v>
       </c>
       <c r="C84">
-        <v>-0.00589868255498535</v>
+        <v>-0.01069789377705524</v>
       </c>
       <c r="D84">
-        <v>0.009295854519709384</v>
+        <v>-0.0644701754215519</v>
       </c>
       <c r="E84">
-        <v>-0.07492358425766826</v>
+        <v>0.003756623760816907</v>
       </c>
       <c r="F84">
-        <v>-0.05772931631306661</v>
+        <v>0.01070853131273671</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1262834043167935</v>
+        <v>-0.1390043016970359</v>
       </c>
       <c r="C85">
-        <v>0.03602116169406196</v>
+        <v>-0.02632228825777142</v>
       </c>
       <c r="D85">
-        <v>-0.008584903408121659</v>
+        <v>-0.01473427799457215</v>
       </c>
       <c r="E85">
-        <v>-0.0002011025794021807</v>
+        <v>0.04136921883157337</v>
       </c>
       <c r="F85">
-        <v>-0.03583427231190296</v>
+        <v>0.04638980050436466</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1592751509460085</v>
+        <v>-0.09467032543889085</v>
       </c>
       <c r="C86">
-        <v>0.0002187685780299239</v>
+        <v>0.007093349525775732</v>
       </c>
       <c r="D86">
-        <v>0.9351655738319887</v>
+        <v>-0.02320048143984083</v>
       </c>
       <c r="E86">
-        <v>0.05986429262192025</v>
+        <v>0.1521291479093111</v>
       </c>
       <c r="F86">
-        <v>0.05331828789717213</v>
+        <v>-0.8726296334299447</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1195377532150571</v>
+        <v>-0.09629005798843707</v>
       </c>
       <c r="C87">
-        <v>0.1127022097002458</v>
+        <v>-0.02197867016942715</v>
       </c>
       <c r="D87">
-        <v>-0.01549999903530829</v>
+        <v>-0.0898954220375818</v>
       </c>
       <c r="E87">
-        <v>-0.00548287552660787</v>
+        <v>-0.05432316652502873</v>
       </c>
       <c r="F87">
-        <v>-0.03595550641017413</v>
+        <v>0.08178406607093859</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05166128763881915</v>
+        <v>-0.06114023931848593</v>
       </c>
       <c r="C88">
-        <v>0.02154950142572087</v>
+        <v>-0.002426469716997108</v>
       </c>
       <c r="D88">
-        <v>-0.02096016245181009</v>
+        <v>-0.05403738991065733</v>
       </c>
       <c r="E88">
-        <v>-0.05858999749375182</v>
+        <v>0.02709816763312904</v>
       </c>
       <c r="F88">
-        <v>8.227052016811768e-05</v>
+        <v>0.00962795234424808</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1635549824362631</v>
+        <v>-0.1362320293555351</v>
       </c>
       <c r="C89">
-        <v>-0.3571689845479041</v>
+        <v>-0.009864088069330434</v>
       </c>
       <c r="D89">
-        <v>-0.04085189112883491</v>
+        <v>0.2545856377600044</v>
       </c>
       <c r="E89">
-        <v>0.0315912270639192</v>
+        <v>-0.09270464539398289</v>
       </c>
       <c r="F89">
-        <v>-0.03214489499791351</v>
+        <v>0.01542183007825996</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1216570783645179</v>
+        <v>-0.1477139907129567</v>
       </c>
       <c r="C90">
-        <v>-0.2823183642455456</v>
+        <v>-0.0274854166827442</v>
       </c>
       <c r="D90">
-        <v>-0.02715310359417702</v>
+        <v>0.266566511112891</v>
       </c>
       <c r="E90">
-        <v>-0.05923121569017689</v>
+        <v>-0.1091275079559159</v>
       </c>
       <c r="F90">
-        <v>-0.01295908987516494</v>
+        <v>0.02009718305117721</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.08420086902714435</v>
+        <v>-0.1194251091281644</v>
       </c>
       <c r="C91">
-        <v>0.03747484708797057</v>
+        <v>-0.01690574637055367</v>
       </c>
       <c r="D91">
-        <v>0.0193791783037925</v>
+        <v>0.008145362573087327</v>
       </c>
       <c r="E91">
-        <v>0.002021924312488863</v>
+        <v>0.05780116512171644</v>
       </c>
       <c r="F91">
-        <v>-0.03031625781961396</v>
+        <v>-0.0164739286731954</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1371495310436003</v>
+        <v>-0.1505488818355762</v>
       </c>
       <c r="C92">
-        <v>-0.3201161388442254</v>
+        <v>-0.01921000446091053</v>
       </c>
       <c r="D92">
-        <v>-0.03387546240135987</v>
+        <v>0.2945805782561768</v>
       </c>
       <c r="E92">
-        <v>0.005161795072319316</v>
+        <v>-0.1041179457741138</v>
       </c>
       <c r="F92">
-        <v>0.001254845414840865</v>
+        <v>0.01397695166552618</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1256671882536157</v>
+        <v>-0.1518990730129352</v>
       </c>
       <c r="C93">
-        <v>-0.3213242167899908</v>
+        <v>-0.02346176735860086</v>
       </c>
       <c r="D93">
-        <v>-0.01309435139495955</v>
+        <v>0.2658971627009902</v>
       </c>
       <c r="E93">
-        <v>-0.08666767191504031</v>
+        <v>-0.07651212618205704</v>
       </c>
       <c r="F93">
-        <v>-0.02728302226585053</v>
+        <v>0.01475642375985445</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1405035439360994</v>
+        <v>-0.13270699101897</v>
       </c>
       <c r="C94">
-        <v>0.05173275475672317</v>
+        <v>-0.02372561560037732</v>
       </c>
       <c r="D94">
-        <v>-0.03723853534997206</v>
+        <v>-0.04609275015704224</v>
       </c>
       <c r="E94">
-        <v>0.02389648068482785</v>
+        <v>0.06139924159542213</v>
       </c>
       <c r="F94">
-        <v>-0.02018548005462861</v>
+        <v>0.03173202630629929</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.116341259442932</v>
+        <v>-0.1258495839100596</v>
       </c>
       <c r="C95">
-        <v>0.04009941968814884</v>
+        <v>-0.004644646666496707</v>
       </c>
       <c r="D95">
-        <v>-0.02898733691786335</v>
+        <v>-0.08961406578812092</v>
       </c>
       <c r="E95">
-        <v>0.02313091045375185</v>
+        <v>0.04476714421730914</v>
       </c>
       <c r="F95">
-        <v>-0.03807211075900199</v>
+        <v>-0.01413707022196835</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.0134832561054167</v>
+        <v>-0.09903558326480708</v>
       </c>
       <c r="C96">
-        <v>-0.002464658981390618</v>
+        <v>0.9887509306390133</v>
       </c>
       <c r="D96">
-        <v>0.002298737397076758</v>
+        <v>0.03549632248454607</v>
       </c>
       <c r="E96">
-        <v>0.008031539311923857</v>
+        <v>0.05794835123433185</v>
       </c>
       <c r="F96">
-        <v>0.00347672753641855</v>
+        <v>0.04623622596297089</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1756118622813932</v>
+        <v>-0.188954587856318</v>
       </c>
       <c r="C97">
-        <v>0.03578040084209495</v>
+        <v>0.009823776661031212</v>
       </c>
       <c r="D97">
-        <v>-0.05467842989948841</v>
+        <v>0.01038733947472844</v>
       </c>
       <c r="E97">
-        <v>0.107345380662755</v>
+        <v>0.0140214737437634</v>
       </c>
       <c r="F97">
-        <v>0.8543895581332429</v>
+        <v>-0.1513172963625654</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2451821139728041</v>
+        <v>-0.2053462856944702</v>
       </c>
       <c r="C98">
-        <v>-0.009306625039021422</v>
+        <v>-0.007127175150133178</v>
       </c>
       <c r="D98">
-        <v>0.0237798744370934</v>
+        <v>-0.009576557354171957</v>
       </c>
       <c r="E98">
-        <v>0.08994980248974764</v>
+        <v>-0.09800234011667673</v>
       </c>
       <c r="F98">
-        <v>-0.02476163713105776</v>
+        <v>-0.1115659792098796</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.04036918691737281</v>
+        <v>-0.05551381075786758</v>
       </c>
       <c r="C99">
-        <v>-0.00993198292293684</v>
+        <v>0.004082655659035113</v>
       </c>
       <c r="D99">
-        <v>-0.03063976921191987</v>
+        <v>-0.03622980545289881</v>
       </c>
       <c r="E99">
-        <v>0.02112998781528118</v>
+        <v>0.02685547165100276</v>
       </c>
       <c r="F99">
-        <v>-0.01818256420042204</v>
+        <v>0.002977422317085104</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.0284188871604967</v>
+        <v>-0.1223478313624533</v>
       </c>
       <c r="C100">
-        <v>0.1099278272336572</v>
+        <v>0.0520572222005412</v>
       </c>
       <c r="D100">
-        <v>-0.2025051931178618</v>
+        <v>-0.349476983631238</v>
       </c>
       <c r="E100">
-        <v>-0.05172804469047331</v>
+        <v>-0.893145721895102</v>
       </c>
       <c r="F100">
-        <v>0.07823891559661521</v>
+        <v>-0.07395007408461139</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02954382935071396</v>
+        <v>-0.02695776082939712</v>
       </c>
       <c r="C101">
-        <v>0.00811012993102677</v>
+        <v>-0.008594597340780238</v>
       </c>
       <c r="D101">
-        <v>-0.001817673894562768</v>
+        <v>-0.03004902476570743</v>
       </c>
       <c r="E101">
-        <v>-0.03769809482801412</v>
+        <v>0.01166927345031955</v>
       </c>
       <c r="F101">
-        <v>-0.02633547778811919</v>
+        <v>-0.01638585979891473</v>
       </c>
     </row>
     <row r="102" spans="1:6">
